--- a/CA.xlsx
+++ b/CA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeluzjunior\PycharmProjects\projeto_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeluzjunior\PycharmProjects\teste_visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B321FFF7-2ECA-4A17-A8BF-A278A40F25E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AEE3A1-1DD9-4E5E-9131-11B1EEF5E42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80377A40-107F-4EA7-AA3F-2F03C9CD5D79}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,9 +841,9 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -857,13 +857,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -904,7 +904,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -918,7 +918,7 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -932,7 +932,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -974,7 +974,7 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -988,7 +988,7 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="C24" t="s">
         <v>50</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       <c r="C25" t="s">
         <v>52</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       <c r="C26" t="s">
         <v>54</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       <c r="C27" t="s">
         <v>56</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="C29" t="s">
         <v>60</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1268,14 +1268,14 @@
       <c r="C30" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
         <v>63</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,14 +1288,14 @@
       <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
         <v>63</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1308,14 +1308,14 @@
       <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,14 +1328,14 @@
       <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,14 +1348,14 @@
       <c r="C34" t="s">
         <v>72</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,14 +1368,14 @@
       <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1388,14 +1388,14 @@
       <c r="C36" t="s">
         <v>76</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>63</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1408,14 +1408,14 @@
       <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
         <v>63</v>
-      </c>
-      <c r="E37">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1428,14 +1428,14 @@
       <c r="C38" t="s">
         <v>80</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
         <v>63</v>
-      </c>
-      <c r="E38">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1448,14 +1448,14 @@
       <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
         <v>63</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1468,14 +1468,14 @@
       <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
         <v>63</v>
-      </c>
-      <c r="E40">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
       <c r="C41" t="s">
         <v>88</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       <c r="C42" t="s">
         <v>90</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       <c r="C43" t="s">
         <v>92</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1530,14 +1530,14 @@
       <c r="C44" t="s">
         <v>94</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
         <v>63</v>
-      </c>
-      <c r="E44">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1550,14 +1550,14 @@
       <c r="C45" t="s">
         <v>95</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
         <v>63</v>
-      </c>
-      <c r="E45">
-        <v>12</v>
-      </c>
-      <c r="F45" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,14 +1570,14 @@
       <c r="C46" t="s">
         <v>97</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
         <v>63</v>
-      </c>
-      <c r="E46">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1590,14 +1590,14 @@
       <c r="C47" t="s">
         <v>98</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" t="s">
         <v>63</v>
-      </c>
-      <c r="E47">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,14 +1610,14 @@
       <c r="C48" t="s">
         <v>100</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" t="s">
         <v>63</v>
-      </c>
-      <c r="E48">
-        <v>15</v>
-      </c>
-      <c r="F48" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1630,14 +1630,14 @@
       <c r="C49" t="s">
         <v>102</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" t="s">
         <v>63</v>
-      </c>
-      <c r="E49">
-        <v>16</v>
-      </c>
-      <c r="F49" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1650,14 +1650,14 @@
       <c r="C50" t="s">
         <v>104</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" t="s">
         <v>105</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1670,14 +1670,14 @@
       <c r="C51" t="s">
         <v>107</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" t="s">
         <v>105</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1690,14 +1690,14 @@
       <c r="C52" t="s">
         <v>109</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" t="s">
         <v>105</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
       <c r="C53" t="s">
         <v>111</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E53" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="C54" t="s">
         <v>113</v>
       </c>
-      <c r="F54" t="s">
+      <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1738,14 +1738,14 @@
       <c r="C55" t="s">
         <v>117</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="E55">
-        <v>4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,14 +1758,14 @@
       <c r="C56" t="s">
         <v>119</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="E56">
-        <v>5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,14 +1778,14 @@
       <c r="C57" t="s">
         <v>121</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,14 +1798,14 @@
       <c r="C58" t="s">
         <v>123</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
         <v>105</v>
-      </c>
-      <c r="E58">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,14 +1818,14 @@
       <c r="C59" t="s">
         <v>125</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
         <v>105</v>
-      </c>
-      <c r="E59">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,14 +1849,14 @@
       <c r="C61" t="s">
         <v>128</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
         <v>105</v>
-      </c>
-      <c r="E61">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1869,14 +1869,14 @@
       <c r="C62" t="s">
         <v>130</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" t="s">
         <v>105</v>
-      </c>
-      <c r="E62">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1889,14 +1889,14 @@
       <c r="C63" t="s">
         <v>132</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" t="s">
         <v>105</v>
-      </c>
-      <c r="E63">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1909,14 +1909,14 @@
       <c r="C64" t="s">
         <v>133</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" t="s">
         <v>105</v>
-      </c>
-      <c r="E64">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1929,7 +1929,7 @@
       <c r="C65" t="s">
         <v>135</v>
       </c>
-      <c r="F65" t="s">
+      <c r="E65" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1943,14 +1943,14 @@
       <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" t="s">
         <v>105</v>
-      </c>
-      <c r="E66">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,14 +1963,14 @@
       <c r="C67" t="s">
         <v>138</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" t="s">
         <v>105</v>
-      </c>
-      <c r="E67">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
